--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel20/field_36ha_100ha_10%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel20/field_36ha_100ha_10%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -2727,28 +2727,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>682.1223954485857</v>
+        <v>785.637468139816</v>
       </c>
       <c r="AB2" t="n">
-        <v>933.3099545689774</v>
+        <v>1074.94384378782</v>
       </c>
       <c r="AC2" t="n">
-        <v>844.2361624136619</v>
+        <v>972.3527120298696</v>
       </c>
       <c r="AD2" t="n">
-        <v>682122.3954485857</v>
+        <v>785637.468139816</v>
       </c>
       <c r="AE2" t="n">
-        <v>933309.9545689775</v>
+        <v>1074943.84378782</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.344208291920199e-06</v>
+        <v>1.937897259759067e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.60995370370371</v>
       </c>
       <c r="AH2" t="n">
-        <v>844236.1624136618</v>
+        <v>972352.7120298697</v>
       </c>
     </row>
     <row r="3">
@@ -2833,28 +2833,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>422.8185914181743</v>
+        <v>491.8002824360218</v>
       </c>
       <c r="AB3" t="n">
-        <v>578.5190502181067</v>
+        <v>672.9028431261507</v>
       </c>
       <c r="AC3" t="n">
-        <v>523.3060040218764</v>
+        <v>608.6819402032621</v>
       </c>
       <c r="AD3" t="n">
-        <v>422818.5914181743</v>
+        <v>491800.2824360218</v>
       </c>
       <c r="AE3" t="n">
-        <v>578519.0502181067</v>
+        <v>672902.8431261508</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.878057765933437e-06</v>
+        <v>2.707529048993328e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.18055555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>523306.0040218765</v>
+        <v>608681.9402032621</v>
       </c>
     </row>
     <row r="4">
@@ -2939,28 +2939,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>357.7099640536566</v>
+        <v>426.6915655629529</v>
       </c>
       <c r="AB4" t="n">
-        <v>489.4345538680575</v>
+        <v>583.8182243065531</v>
       </c>
       <c r="AC4" t="n">
-        <v>442.7236069725999</v>
+        <v>528.0994323727591</v>
       </c>
       <c r="AD4" t="n">
-        <v>357709.9640536566</v>
+        <v>426691.5655629529</v>
       </c>
       <c r="AE4" t="n">
-        <v>489434.5538680575</v>
+        <v>583818.2243065531</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.086975936875361e-06</v>
+        <v>3.008718941523962e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.56018518518519</v>
       </c>
       <c r="AH4" t="n">
-        <v>442723.6069725999</v>
+        <v>528099.4323727591</v>
       </c>
     </row>
     <row r="5">
@@ -3045,28 +3045,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>325.4910873813276</v>
+        <v>385.9246619497121</v>
       </c>
       <c r="AB5" t="n">
-        <v>445.3512654084553</v>
+        <v>528.0391482740621</v>
       </c>
       <c r="AC5" t="n">
-        <v>402.8475656922984</v>
+        <v>477.643833070384</v>
       </c>
       <c r="AD5" t="n">
-        <v>325491.0873813276</v>
+        <v>385924.6619497121</v>
       </c>
       <c r="AE5" t="n">
-        <v>445351.2654084553</v>
+        <v>528039.1482740621</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.195531457070675e-06</v>
+        <v>3.165219571956546e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.84259259259259</v>
       </c>
       <c r="AH5" t="n">
-        <v>402847.5656922983</v>
+        <v>477643.833070384</v>
       </c>
     </row>
     <row r="6">
@@ -3151,28 +3151,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>308.8383209871119</v>
+        <v>369.1013033549042</v>
       </c>
       <c r="AB6" t="n">
-        <v>422.5662157596863</v>
+        <v>505.0206868504461</v>
       </c>
       <c r="AC6" t="n">
-        <v>382.2370892029897</v>
+        <v>456.8222212984243</v>
       </c>
       <c r="AD6" t="n">
-        <v>308838.3209871119</v>
+        <v>369101.3033549042</v>
       </c>
       <c r="AE6" t="n">
-        <v>422566.2157596863</v>
+        <v>505020.686850446</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.265590994535865e-06</v>
+        <v>3.266221913996734e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.41435185185185</v>
       </c>
       <c r="AH6" t="n">
-        <v>382237.0892029897</v>
+        <v>456822.2212984243</v>
       </c>
     </row>
     <row r="7">
@@ -3257,28 +3257,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>295.9511665451216</v>
+        <v>347.7514628265736</v>
       </c>
       <c r="AB7" t="n">
-        <v>404.9334425110268</v>
+        <v>475.8088931510953</v>
       </c>
       <c r="AC7" t="n">
-        <v>366.2871630854297</v>
+        <v>430.3983601907297</v>
       </c>
       <c r="AD7" t="n">
-        <v>295951.1665451216</v>
+        <v>347751.4628265736</v>
       </c>
       <c r="AE7" t="n">
-        <v>404933.4425110269</v>
+        <v>475808.8931510953</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.312017254745182e-06</v>
+        <v>3.333153001225764e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.14814814814815</v>
       </c>
       <c r="AH7" t="n">
-        <v>366287.1630854297</v>
+        <v>430398.3601907297</v>
       </c>
     </row>
     <row r="8">
@@ -3363,28 +3363,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>293.9098992979264</v>
+        <v>345.7101955793784</v>
       </c>
       <c r="AB8" t="n">
-        <v>402.1404906090591</v>
+        <v>473.0159412491275</v>
       </c>
       <c r="AC8" t="n">
-        <v>363.7607665930531</v>
+        <v>427.8719636983531</v>
       </c>
       <c r="AD8" t="n">
-        <v>293909.8992979263</v>
+        <v>345710.1955793784</v>
       </c>
       <c r="AE8" t="n">
-        <v>402140.4906090591</v>
+        <v>473015.9412491275</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.323466264615805e-06</v>
+        <v>3.34965863133428e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.0787037037037</v>
       </c>
       <c r="AH8" t="n">
-        <v>363760.7665930531</v>
+        <v>427871.9636983531</v>
       </c>
     </row>
   </sheetData>
@@ -3660,28 +3660,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>521.2671635562335</v>
+        <v>605.4413991062639</v>
       </c>
       <c r="AB2" t="n">
-        <v>713.2207298618712</v>
+        <v>828.391632446609</v>
       </c>
       <c r="AC2" t="n">
-        <v>645.1519444154349</v>
+        <v>749.3310977008622</v>
       </c>
       <c r="AD2" t="n">
-        <v>521267.1635562335</v>
+        <v>605441.3991062639</v>
       </c>
       <c r="AE2" t="n">
-        <v>713220.7298618712</v>
+        <v>828391.6324466091</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.591040687719643e-06</v>
+        <v>2.329223713536922e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.76273148148148</v>
       </c>
       <c r="AH2" t="n">
-        <v>645151.9444154348</v>
+        <v>749331.0977008622</v>
       </c>
     </row>
     <row r="3">
@@ -3766,28 +3766,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>354.1909078173997</v>
+        <v>413.112962210972</v>
       </c>
       <c r="AB3" t="n">
-        <v>484.6196258758067</v>
+        <v>565.2393801546715</v>
       </c>
       <c r="AC3" t="n">
-        <v>438.3682089501356</v>
+        <v>511.2937270311614</v>
       </c>
       <c r="AD3" t="n">
-        <v>354190.9078173997</v>
+        <v>413112.962210972</v>
       </c>
       <c r="AE3" t="n">
-        <v>484619.6258758067</v>
+        <v>565239.3801546715</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.086145819602488e-06</v>
+        <v>3.054039001276788e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.06944444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>438368.2089501356</v>
+        <v>511293.7270311614</v>
       </c>
     </row>
     <row r="4">
@@ -3872,28 +3872,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>301.1704473069261</v>
+        <v>360.0924121919473</v>
       </c>
       <c r="AB4" t="n">
-        <v>412.0746927077441</v>
+        <v>492.6943245170606</v>
       </c>
       <c r="AC4" t="n">
-        <v>372.7468623861798</v>
+        <v>445.672269685979</v>
       </c>
       <c r="AD4" t="n">
-        <v>301170.4473069261</v>
+        <v>360092.4121919473</v>
       </c>
       <c r="AE4" t="n">
-        <v>412074.6927077441</v>
+        <v>492694.3245170606</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.27537562036491e-06</v>
+        <v>3.331064310966018e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.81944444444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>372746.8623861799</v>
+        <v>445672.269685979</v>
       </c>
     </row>
     <row r="5">
@@ -3978,28 +3978,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>280.6379253858659</v>
+        <v>339.3892980702949</v>
       </c>
       <c r="AB5" t="n">
-        <v>383.9811903844127</v>
+        <v>464.3674104188823</v>
       </c>
       <c r="AC5" t="n">
-        <v>347.3345644951091</v>
+        <v>420.0488365122573</v>
       </c>
       <c r="AD5" t="n">
-        <v>280637.9253858659</v>
+        <v>339389.2980702949</v>
       </c>
       <c r="AE5" t="n">
-        <v>383981.1903844128</v>
+        <v>464367.4104188823</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.372245196810329e-06</v>
+        <v>3.472877726750082e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.25231481481481</v>
       </c>
       <c r="AH5" t="n">
-        <v>347334.5644951091</v>
+        <v>420048.8365122572</v>
       </c>
     </row>
     <row r="6">
@@ -4084,28 +4084,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>274.3822633510634</v>
+        <v>324.8868941896326</v>
       </c>
       <c r="AB6" t="n">
-        <v>375.4219176080647</v>
+        <v>444.5245816284558</v>
       </c>
       <c r="AC6" t="n">
-        <v>339.5921766995209</v>
+        <v>402.0997794520039</v>
       </c>
       <c r="AD6" t="n">
-        <v>274382.2633510634</v>
+        <v>324886.8941896326</v>
       </c>
       <c r="AE6" t="n">
-        <v>375421.9176080648</v>
+        <v>444524.5816284558</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.401202843610896e-06</v>
+        <v>3.515270632309761e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.09606481481481</v>
       </c>
       <c r="AH6" t="n">
-        <v>339592.1766995209</v>
+        <v>402099.7794520039</v>
       </c>
     </row>
     <row r="7">
@@ -4190,28 +4190,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>275.245244534872</v>
+        <v>325.7498753734413</v>
       </c>
       <c r="AB7" t="n">
-        <v>376.6026865357945</v>
+        <v>445.7053505561856</v>
       </c>
       <c r="AC7" t="n">
-        <v>340.6602546980077</v>
+        <v>403.1678574504907</v>
       </c>
       <c r="AD7" t="n">
-        <v>275245.244534872</v>
+        <v>325749.8753734413</v>
       </c>
       <c r="AE7" t="n">
-        <v>376602.6865357945</v>
+        <v>445705.3505561856</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.400550889086305e-06</v>
+        <v>3.514316195411606e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.09606481481481</v>
       </c>
       <c r="AH7" t="n">
-        <v>340660.2546980077</v>
+        <v>403167.8574504907</v>
       </c>
     </row>
   </sheetData>
@@ -4487,28 +4487,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>257.5954780611288</v>
+        <v>319.6484470804792</v>
       </c>
       <c r="AB2" t="n">
-        <v>352.4534973935101</v>
+        <v>437.3571071897361</v>
       </c>
       <c r="AC2" t="n">
-        <v>318.8158302739692</v>
+        <v>395.6163587141021</v>
       </c>
       <c r="AD2" t="n">
-        <v>257595.4780611288</v>
+        <v>319648.4470804792</v>
       </c>
       <c r="AE2" t="n">
-        <v>352453.4973935101</v>
+        <v>437357.1071897361</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.398522246160629e-06</v>
+        <v>3.710809971403211e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.62962962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>318815.8302739692</v>
+        <v>395616.3587141021</v>
       </c>
     </row>
     <row r="3">
@@ -4593,28 +4593,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>227.4076203108456</v>
+        <v>281.7786414505274</v>
       </c>
       <c r="AB3" t="n">
-        <v>311.1491386253028</v>
+        <v>385.5419684289236</v>
       </c>
       <c r="AC3" t="n">
-        <v>281.4535015355548</v>
+        <v>348.7463840736176</v>
       </c>
       <c r="AD3" t="n">
-        <v>227407.6203108456</v>
+        <v>281778.6414505274</v>
       </c>
       <c r="AE3" t="n">
-        <v>311149.1386253028</v>
+        <v>385541.9684289236</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.578211355897261e-06</v>
+        <v>3.988811203716402e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.60532407407408</v>
       </c>
       <c r="AH3" t="n">
-        <v>281453.5015355548</v>
+        <v>348746.3840736176</v>
       </c>
     </row>
   </sheetData>
@@ -4890,28 +4890,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>340.5690605011828</v>
+        <v>404.6555332491189</v>
       </c>
       <c r="AB2" t="n">
-        <v>465.9816134242681</v>
+        <v>553.6675527336313</v>
       </c>
       <c r="AC2" t="n">
-        <v>421.5089822483571</v>
+        <v>500.8262985780237</v>
       </c>
       <c r="AD2" t="n">
-        <v>340569.0605011828</v>
+        <v>404655.5332491189</v>
       </c>
       <c r="AE2" t="n">
-        <v>465981.6134242681</v>
+        <v>553667.5527336313</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.071533969783983e-06</v>
+        <v>3.130696793951919e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.20370370370371</v>
       </c>
       <c r="AH2" t="n">
-        <v>421508.9822483571</v>
+        <v>500826.2985780237</v>
       </c>
     </row>
     <row r="3">
@@ -4996,28 +4996,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>250.8477927510909</v>
+        <v>306.9980513333061</v>
       </c>
       <c r="AB3" t="n">
-        <v>343.2210166654547</v>
+        <v>420.048277632382</v>
       </c>
       <c r="AC3" t="n">
-        <v>310.4644845487284</v>
+        <v>379.959459556607</v>
       </c>
       <c r="AD3" t="n">
-        <v>250847.7927510909</v>
+        <v>306998.0513333061</v>
       </c>
       <c r="AE3" t="n">
-        <v>343221.0166654547</v>
+        <v>420048.277632382</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.479426304446919e-06</v>
+        <v>3.747142019100692e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.53587962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>310464.4845487284</v>
+        <v>379959.4595566071</v>
       </c>
     </row>
     <row r="4">
@@ -5102,28 +5102,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>244.2420004558128</v>
+        <v>300.2216668374358</v>
       </c>
       <c r="AB4" t="n">
-        <v>334.1826802200716</v>
+        <v>410.7765294121473</v>
       </c>
       <c r="AC4" t="n">
-        <v>302.2887542483049</v>
+        <v>371.5725939735311</v>
       </c>
       <c r="AD4" t="n">
-        <v>244242.0004558128</v>
+        <v>300221.6668374358</v>
       </c>
       <c r="AE4" t="n">
-        <v>334182.6802200716</v>
+        <v>410776.5294121473</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.524373917039521e-06</v>
+        <v>3.815071074907645e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.29282407407407</v>
       </c>
       <c r="AH4" t="n">
-        <v>302288.7542483049</v>
+        <v>371572.5939735312</v>
       </c>
     </row>
   </sheetData>
@@ -5399,28 +5399,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>223.0113798693096</v>
+        <v>275.8378099832799</v>
       </c>
       <c r="AB2" t="n">
-        <v>305.1340085047561</v>
+        <v>377.4134607244487</v>
       </c>
       <c r="AC2" t="n">
-        <v>276.0124469914231</v>
+        <v>341.3936497360256</v>
       </c>
       <c r="AD2" t="n">
-        <v>223011.3798693097</v>
+        <v>275837.8099832799</v>
       </c>
       <c r="AE2" t="n">
-        <v>305134.0085047561</v>
+        <v>377413.4607244487</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.576759780154391e-06</v>
+        <v>4.072537886531677e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.13773148148148</v>
       </c>
       <c r="AH2" t="n">
-        <v>276012.4469914231</v>
+        <v>341393.6497360256</v>
       </c>
     </row>
     <row r="3">
@@ -5505,28 +5505,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>224.0770739803241</v>
+        <v>276.9035040942944</v>
       </c>
       <c r="AB3" t="n">
-        <v>306.5921382025515</v>
+        <v>378.8715904222448</v>
       </c>
       <c r="AC3" t="n">
-        <v>277.3314148373593</v>
+        <v>342.7126175819619</v>
       </c>
       <c r="AD3" t="n">
-        <v>224077.0739803241</v>
+        <v>276903.5040942944</v>
       </c>
       <c r="AE3" t="n">
-        <v>306592.1382025515</v>
+        <v>378871.5904222448</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.577137558008536e-06</v>
+        <v>4.073134959893171e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.13773148148148</v>
       </c>
       <c r="AH3" t="n">
-        <v>277331.4148373593</v>
+        <v>342712.6175819619</v>
       </c>
     </row>
   </sheetData>
@@ -5802,28 +5802,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>559.7907954971048</v>
+        <v>644.4473706754875</v>
       </c>
       <c r="AB2" t="n">
-        <v>765.9304626260646</v>
+        <v>881.7613235696367</v>
       </c>
       <c r="AC2" t="n">
-        <v>692.8311342631881</v>
+        <v>797.60726040794</v>
       </c>
       <c r="AD2" t="n">
-        <v>559790.7954971048</v>
+        <v>644447.3706754874</v>
       </c>
       <c r="AE2" t="n">
-        <v>765930.4626260645</v>
+        <v>881761.3235696367</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.526891249449441e-06</v>
+        <v>2.22603381722668e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.40509259259259</v>
       </c>
       <c r="AH2" t="n">
-        <v>692831.1342631881</v>
+        <v>797607.26040794</v>
       </c>
     </row>
     <row r="3">
@@ -5908,28 +5908,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>369.7238969250601</v>
+        <v>437.3467659439905</v>
       </c>
       <c r="AB3" t="n">
-        <v>505.8725468400232</v>
+        <v>598.3971395421534</v>
       </c>
       <c r="AC3" t="n">
-        <v>457.5927809661894</v>
+        <v>541.2869563999097</v>
       </c>
       <c r="AD3" t="n">
-        <v>369723.8969250601</v>
+        <v>437346.7659439906</v>
       </c>
       <c r="AE3" t="n">
-        <v>505872.5468400232</v>
+        <v>598397.1395421533</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.026217369813138e-06</v>
+        <v>2.953994521798781e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.37615740740741</v>
       </c>
       <c r="AH3" t="n">
-        <v>457592.7809661893</v>
+        <v>541286.9563999097</v>
       </c>
     </row>
     <row r="4">
@@ -6014,28 +6014,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>312.9790120234156</v>
+        <v>380.6017915337949</v>
       </c>
       <c r="AB4" t="n">
-        <v>428.231691909953</v>
+        <v>520.7561621425349</v>
       </c>
       <c r="AC4" t="n">
-        <v>387.3618602610207</v>
+        <v>471.0559249135145</v>
       </c>
       <c r="AD4" t="n">
-        <v>312979.0120234156</v>
+        <v>380601.791533795</v>
       </c>
       <c r="AE4" t="n">
-        <v>428231.691909953</v>
+        <v>520756.1621425349</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.225915513055424e-06</v>
+        <v>3.245131706752191e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.99884259259259</v>
       </c>
       <c r="AH4" t="n">
-        <v>387361.8602610207</v>
+        <v>471055.9249135145</v>
       </c>
     </row>
     <row r="5">
@@ -6120,28 +6120,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>290.5927920437945</v>
+        <v>349.7414784102846</v>
       </c>
       <c r="AB5" t="n">
-        <v>397.6018781235121</v>
+        <v>478.53172026602</v>
       </c>
       <c r="AC5" t="n">
-        <v>359.655312913144</v>
+        <v>432.8613245073179</v>
       </c>
       <c r="AD5" t="n">
-        <v>290592.7920437945</v>
+        <v>349741.4784102846</v>
       </c>
       <c r="AE5" t="n">
-        <v>397601.878123512</v>
+        <v>478531.72026602</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.331606388004091e-06</v>
+        <v>3.399216984202594e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.36226851851852</v>
       </c>
       <c r="AH5" t="n">
-        <v>359655.312913144</v>
+        <v>432861.3245073179</v>
       </c>
     </row>
     <row r="6">
@@ -6226,28 +6226,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>280.5094353383052</v>
+        <v>331.3546207614982</v>
       </c>
       <c r="AB6" t="n">
-        <v>383.8053846327594</v>
+        <v>453.3740104600407</v>
       </c>
       <c r="AC6" t="n">
-        <v>347.1755373976486</v>
+        <v>410.1046312161537</v>
       </c>
       <c r="AD6" t="n">
-        <v>280509.4353383052</v>
+        <v>331354.6207614982</v>
       </c>
       <c r="AE6" t="n">
-        <v>383805.3846327594</v>
+        <v>453374.0104600406</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.374087335703785e-06</v>
+        <v>3.461149375393816e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.125</v>
       </c>
       <c r="AH6" t="n">
-        <v>347175.5373976486</v>
+        <v>410104.6312161537</v>
       </c>
     </row>
     <row r="7">
@@ -6332,28 +6332,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>279.3237561397547</v>
+        <v>330.1689415629477</v>
       </c>
       <c r="AB7" t="n">
-        <v>382.183086044828</v>
+        <v>451.7517118721094</v>
       </c>
       <c r="AC7" t="n">
-        <v>345.7080687100391</v>
+        <v>408.6371625285442</v>
       </c>
       <c r="AD7" t="n">
-        <v>279323.7561397547</v>
+        <v>330168.9415629477</v>
       </c>
       <c r="AE7" t="n">
-        <v>382183.0860448281</v>
+        <v>451751.7118721093</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.383671123651244e-06</v>
+        <v>3.475121448438223e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.07291666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>345708.0687100391</v>
+        <v>408637.1625285442</v>
       </c>
     </row>
   </sheetData>
@@ -6629,28 +6629,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>216.4923724984316</v>
+        <v>275.889927492213</v>
       </c>
       <c r="AB2" t="n">
-        <v>296.2144150216178</v>
+        <v>377.4847701994332</v>
       </c>
       <c r="AC2" t="n">
-        <v>267.9441269915845</v>
+        <v>341.458153534801</v>
       </c>
       <c r="AD2" t="n">
-        <v>216492.3724984316</v>
+        <v>275889.927492213</v>
       </c>
       <c r="AE2" t="n">
-        <v>296214.4150216178</v>
+        <v>377484.7701994332</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.556400690963716e-06</v>
+        <v>4.095954399510146e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.58912037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>267944.1269915845</v>
+        <v>341458.153534801</v>
       </c>
     </row>
   </sheetData>
@@ -6926,28 +6926,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>420.1106447838614</v>
+        <v>502.2720912944472</v>
       </c>
       <c r="AB2" t="n">
-        <v>574.8139181668658</v>
+        <v>687.2308339898502</v>
       </c>
       <c r="AC2" t="n">
-        <v>519.9544845734205</v>
+        <v>621.6424877283915</v>
       </c>
       <c r="AD2" t="n">
-        <v>420110.6447838614</v>
+        <v>502272.0912944472</v>
       </c>
       <c r="AE2" t="n">
-        <v>574813.9181668658</v>
+        <v>687230.8339898502</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.8144706379388e-06</v>
+        <v>2.694204383134601e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.85300925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>519954.4845734204</v>
+        <v>621642.4877283915</v>
       </c>
     </row>
     <row r="3">
@@ -7032,28 +7032,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>302.1297900146246</v>
+        <v>359.6770284224143</v>
       </c>
       <c r="AB3" t="n">
-        <v>413.3873077236304</v>
+        <v>492.125978118147</v>
       </c>
       <c r="AC3" t="n">
-        <v>373.9342032672167</v>
+        <v>445.1581654696986</v>
       </c>
       <c r="AD3" t="n">
-        <v>302129.7900146247</v>
+        <v>359677.0284224143</v>
       </c>
       <c r="AE3" t="n">
-        <v>413387.3077236305</v>
+        <v>492125.978118147</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.271069033547832e-06</v>
+        <v>3.372181404674905e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.2650462962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>373934.2032672167</v>
+        <v>445158.1654696987</v>
       </c>
     </row>
     <row r="4">
@@ -7138,28 +7138,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>264.2665474456281</v>
+        <v>321.7284449988462</v>
       </c>
       <c r="AB4" t="n">
-        <v>361.5811488323588</v>
+        <v>440.2030521046777</v>
       </c>
       <c r="AC4" t="n">
-        <v>327.0723514701274</v>
+        <v>398.1906906406704</v>
       </c>
       <c r="AD4" t="n">
-        <v>264266.5474456281</v>
+        <v>321728.4449988462</v>
       </c>
       <c r="AE4" t="n">
-        <v>361581.1488323588</v>
+        <v>440203.0521046777</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.435807182165876e-06</v>
+        <v>3.616791723958111e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.29861111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>327072.3514701274</v>
+        <v>398190.6906406704</v>
       </c>
     </row>
     <row r="5">
@@ -7244,28 +7244,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>259.8424521302334</v>
+        <v>309.2418185706219</v>
       </c>
       <c r="AB5" t="n">
-        <v>355.5279064445254</v>
+        <v>423.1182989545017</v>
       </c>
       <c r="AC5" t="n">
-        <v>321.5968220400098</v>
+        <v>382.7364823525456</v>
       </c>
       <c r="AD5" t="n">
-        <v>259842.4521302334</v>
+        <v>309241.8185706219</v>
       </c>
       <c r="AE5" t="n">
-        <v>355527.9064445254</v>
+        <v>423118.2989545017</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.465698507807071e-06</v>
+        <v>3.66117565548962e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.13657407407407</v>
       </c>
       <c r="AH5" t="n">
-        <v>321596.8220400098</v>
+        <v>382736.4823525456</v>
       </c>
     </row>
   </sheetData>
@@ -7541,28 +7541,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>490.9772140899567</v>
+        <v>566.203858693328</v>
       </c>
       <c r="AB2" t="n">
-        <v>671.776684703852</v>
+        <v>774.7050986155178</v>
       </c>
       <c r="AC2" t="n">
-        <v>607.6632607602141</v>
+        <v>700.7683313090869</v>
       </c>
       <c r="AD2" t="n">
-        <v>490977.2140899567</v>
+        <v>566203.858693328</v>
       </c>
       <c r="AE2" t="n">
-        <v>671776.6847038519</v>
+        <v>774705.0986155178</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.663411833293787e-06</v>
+        <v>2.445951419982744e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.07986111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>607663.2607602142</v>
+        <v>700768.3313090869</v>
       </c>
     </row>
     <row r="3">
@@ -7647,28 +7647,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>331.1152604005885</v>
+        <v>397.8979685191904</v>
       </c>
       <c r="AB3" t="n">
-        <v>453.0465070544101</v>
+        <v>544.4215545474279</v>
       </c>
       <c r="AC3" t="n">
-        <v>409.8083842759027</v>
+        <v>492.4627254818714</v>
       </c>
       <c r="AD3" t="n">
-        <v>331115.2604005884</v>
+        <v>397897.9685191904</v>
       </c>
       <c r="AE3" t="n">
-        <v>453046.5070544101</v>
+        <v>544421.5545474279</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.144133410623077e-06</v>
+        <v>3.152824847927904e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.80324074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>409808.3842759026</v>
+        <v>492462.7254818714</v>
       </c>
     </row>
     <row r="4">
@@ -7753,28 +7753,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>288.6412526401753</v>
+        <v>347.1507954917022</v>
       </c>
       <c r="AB4" t="n">
-        <v>394.9316958156381</v>
+        <v>474.9870336039517</v>
       </c>
       <c r="AC4" t="n">
-        <v>357.2399690571092</v>
+        <v>429.6549377652783</v>
       </c>
       <c r="AD4" t="n">
-        <v>288641.2526401753</v>
+        <v>347150.7954917022</v>
       </c>
       <c r="AE4" t="n">
-        <v>394931.6958156381</v>
+        <v>474987.0336039517</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.327317673975026e-06</v>
+        <v>3.422186770270954e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.6400462962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>357239.9690571092</v>
+        <v>429654.9377652783</v>
       </c>
     </row>
     <row r="5">
@@ -7859,28 +7859,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>270.356490936906</v>
+        <v>320.5076171753372</v>
       </c>
       <c r="AB5" t="n">
-        <v>369.9136781864704</v>
+        <v>438.5326616174303</v>
       </c>
       <c r="AC5" t="n">
-        <v>334.6096359174609</v>
+        <v>396.6797198771182</v>
       </c>
       <c r="AD5" t="n">
-        <v>270356.490936906</v>
+        <v>320507.6171753372</v>
       </c>
       <c r="AE5" t="n">
-        <v>369913.6781864704</v>
+        <v>438532.6616174303</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.416715982137802e-06</v>
+        <v>3.553641840156933e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.13078703703704</v>
       </c>
       <c r="AH5" t="n">
-        <v>334609.6359174609</v>
+        <v>396679.7198771182</v>
       </c>
     </row>
     <row r="6">
@@ -7965,28 +7965,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>269.6894448760711</v>
+        <v>319.8405711145024</v>
       </c>
       <c r="AB6" t="n">
-        <v>369.0009963380408</v>
+        <v>437.6199797690008</v>
       </c>
       <c r="AC6" t="n">
-        <v>333.7840591436885</v>
+        <v>395.8541431033458</v>
       </c>
       <c r="AD6" t="n">
-        <v>269689.4448760711</v>
+        <v>319840.5711145024</v>
       </c>
       <c r="AE6" t="n">
-        <v>369000.9963380408</v>
+        <v>437619.9797690008</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.422529614447775e-06</v>
+        <v>3.562190452063629e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.10185185185185</v>
       </c>
       <c r="AH6" t="n">
-        <v>333784.0591436885</v>
+        <v>395854.1431033458</v>
       </c>
     </row>
   </sheetData>
@@ -8262,28 +8262,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>636.8027359550807</v>
+        <v>739.6159967458875</v>
       </c>
       <c r="AB2" t="n">
-        <v>871.3015970876947</v>
+        <v>1011.975236302622</v>
       </c>
       <c r="AC2" t="n">
-        <v>788.1457955411165</v>
+        <v>915.3937400660636</v>
       </c>
       <c r="AD2" t="n">
-        <v>636802.7359550807</v>
+        <v>739615.9967458876</v>
       </c>
       <c r="AE2" t="n">
-        <v>871301.5970876948</v>
+        <v>1011975.236302622</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.401486643483282e-06</v>
+        <v>2.027632344250446e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.85763888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>788145.7955411165</v>
+        <v>915393.7400660636</v>
       </c>
     </row>
     <row r="3">
@@ -8368,28 +8368,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>398.7143525940037</v>
+        <v>475.781627759823</v>
       </c>
       <c r="AB3" t="n">
-        <v>545.5385672549107</v>
+        <v>650.9854131050073</v>
       </c>
       <c r="AC3" t="n">
-        <v>493.4731320642893</v>
+        <v>588.8562789420304</v>
       </c>
       <c r="AD3" t="n">
-        <v>398714.3525940037</v>
+        <v>475781.627759823</v>
       </c>
       <c r="AE3" t="n">
-        <v>545538.5672549107</v>
+        <v>650985.4131050073</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.926369172384723e-06</v>
+        <v>2.78701795629408e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.90277777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>493473.1320642893</v>
+        <v>588856.2789420304</v>
       </c>
     </row>
     <row r="4">
@@ -8474,28 +8474,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>345.8756345116535</v>
+        <v>405.864349623937</v>
       </c>
       <c r="AB4" t="n">
-        <v>473.2423020949168</v>
+        <v>555.3215086268723</v>
       </c>
       <c r="AC4" t="n">
-        <v>428.0767209827197</v>
+        <v>502.3224032421553</v>
       </c>
       <c r="AD4" t="n">
-        <v>345875.6345116535</v>
+        <v>405864.349623937</v>
       </c>
       <c r="AE4" t="n">
-        <v>473242.3020949168</v>
+        <v>555321.5086268723</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.128857893821738e-06</v>
+        <v>3.079973071378991e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.39236111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>428076.7209827197</v>
+        <v>502322.4032421553</v>
       </c>
     </row>
     <row r="5">
@@ -8580,28 +8580,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>314.6442346177138</v>
+        <v>374.718201076018</v>
       </c>
       <c r="AB5" t="n">
-        <v>430.5101229279078</v>
+        <v>512.7059741125126</v>
       </c>
       <c r="AC5" t="n">
-        <v>389.42284102042</v>
+        <v>463.7740355305677</v>
       </c>
       <c r="AD5" t="n">
-        <v>314644.2346177138</v>
+        <v>374718.201076018</v>
       </c>
       <c r="AE5" t="n">
-        <v>430510.1229279078</v>
+        <v>512705.9741125127</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.236110743398573e-06</v>
+        <v>3.235143545408281e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.69791666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>389422.84102042</v>
+        <v>463774.0355305678</v>
       </c>
     </row>
     <row r="6">
@@ -8686,28 +8686,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>298.3235998674136</v>
+        <v>358.2269741251256</v>
       </c>
       <c r="AB6" t="n">
-        <v>408.179510446958</v>
+        <v>490.1419498567159</v>
       </c>
       <c r="AC6" t="n">
-        <v>369.2234308534406</v>
+        <v>443.3634900809373</v>
       </c>
       <c r="AD6" t="n">
-        <v>298323.5998674136</v>
+        <v>358226.9741251256</v>
       </c>
       <c r="AE6" t="n">
-        <v>408179.510446958</v>
+        <v>490141.9498567159</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.307100906914139e-06</v>
+        <v>3.337850162226285e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.28125</v>
       </c>
       <c r="AH6" t="n">
-        <v>369223.4308534405</v>
+        <v>443363.4900809373</v>
       </c>
     </row>
     <row r="7">
@@ -8792,28 +8792,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>289.9785401639615</v>
+        <v>341.4706009224876</v>
       </c>
       <c r="AB7" t="n">
-        <v>396.7614316026441</v>
+        <v>467.2151408018537</v>
       </c>
       <c r="AC7" t="n">
-        <v>358.8950774286536</v>
+        <v>422.6247835042926</v>
       </c>
       <c r="AD7" t="n">
-        <v>289978.5401639615</v>
+        <v>341470.6009224876</v>
       </c>
       <c r="AE7" t="n">
-        <v>396761.4316026441</v>
+        <v>467215.1408018537</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.337593326142302e-06</v>
+        <v>3.381965756027307e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.10763888888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>358895.0774286536</v>
+        <v>422624.7835042926</v>
       </c>
     </row>
     <row r="8">
@@ -8898,28 +8898,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>290.2093865123881</v>
+        <v>341.7014472709142</v>
       </c>
       <c r="AB8" t="n">
-        <v>397.0772857607835</v>
+        <v>467.5309949599931</v>
       </c>
       <c r="AC8" t="n">
-        <v>359.1807869092443</v>
+        <v>422.9104929848833</v>
       </c>
       <c r="AD8" t="n">
-        <v>290209.3865123881</v>
+        <v>341701.4472709142</v>
       </c>
       <c r="AE8" t="n">
-        <v>397077.2857607835</v>
+        <v>467530.9949599931</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.336693376269248e-06</v>
+        <v>3.380663733293596e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.11342592592593</v>
       </c>
       <c r="AH8" t="n">
-        <v>359180.7869092443</v>
+        <v>422910.4929848833</v>
       </c>
     </row>
   </sheetData>
@@ -9195,28 +9195,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>363.4092441525824</v>
+        <v>436.1861863968012</v>
       </c>
       <c r="AB2" t="n">
-        <v>497.2325603339003</v>
+        <v>596.809183404533</v>
       </c>
       <c r="AC2" t="n">
-        <v>449.7773826459136</v>
+        <v>539.8505525673532</v>
       </c>
       <c r="AD2" t="n">
-        <v>363409.2441525824</v>
+        <v>436186.1863968012</v>
       </c>
       <c r="AE2" t="n">
-        <v>497232.5603339003</v>
+        <v>596809.183404533</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.981006128025973e-06</v>
+        <v>2.974846422765281e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.73032407407407</v>
       </c>
       <c r="AH2" t="n">
-        <v>449777.3826459136</v>
+        <v>539850.5525673532</v>
       </c>
     </row>
     <row r="3">
@@ -9301,28 +9301,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>265.3139733540608</v>
+        <v>321.9846379864534</v>
       </c>
       <c r="AB3" t="n">
-        <v>363.0142831694463</v>
+        <v>440.5535866527588</v>
       </c>
       <c r="AC3" t="n">
-        <v>328.3687094774999</v>
+        <v>398.507770663461</v>
       </c>
       <c r="AD3" t="n">
-        <v>265313.9733540608</v>
+        <v>321984.6379864534</v>
       </c>
       <c r="AE3" t="n">
-        <v>363014.2831694463</v>
+        <v>440553.5866527588</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.407732831117085e-06</v>
+        <v>3.615655347195004e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.76736111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>328368.7094774999</v>
+        <v>398507.7706634609</v>
       </c>
     </row>
     <row r="4">
@@ -9407,28 +9407,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>249.6333137916059</v>
+        <v>306.1333862234093</v>
       </c>
       <c r="AB4" t="n">
-        <v>341.5593129740579</v>
+        <v>418.8652046826888</v>
       </c>
       <c r="AC4" t="n">
-        <v>308.9613715254222</v>
+        <v>378.8892974287792</v>
       </c>
       <c r="AD4" t="n">
-        <v>249633.3137916059</v>
+        <v>306133.3862234093</v>
       </c>
       <c r="AE4" t="n">
-        <v>341559.3129740579</v>
+        <v>418865.2046826889</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.503146424909836e-06</v>
+        <v>3.758936472963346e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.24074074074074</v>
       </c>
       <c r="AH4" t="n">
-        <v>308961.3715254222</v>
+        <v>378889.2974287792</v>
       </c>
     </row>
   </sheetData>
@@ -9704,28 +9704,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>288.0907024079305</v>
+        <v>343.0981358610445</v>
       </c>
       <c r="AB2" t="n">
-        <v>394.1784086993186</v>
+        <v>469.4420059065613</v>
       </c>
       <c r="AC2" t="n">
-        <v>356.5585746059261</v>
+        <v>424.6391197288317</v>
       </c>
       <c r="AD2" t="n">
-        <v>288090.7024079305</v>
+        <v>343098.1358610445</v>
       </c>
       <c r="AE2" t="n">
-        <v>394178.4086993186</v>
+        <v>469442.0059065613</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.275991939134893e-06</v>
+        <v>3.490795237129159e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.16782407407408</v>
       </c>
       <c r="AH2" t="n">
-        <v>356558.5746059261</v>
+        <v>424639.1197288317</v>
       </c>
     </row>
     <row r="3">
@@ -9810,28 +9810,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>233.1122334360372</v>
+        <v>287.9489851800109</v>
       </c>
       <c r="AB3" t="n">
-        <v>318.9544419729551</v>
+        <v>393.9845049359564</v>
       </c>
       <c r="AC3" t="n">
-        <v>288.5138776865217</v>
+        <v>356.3831767455935</v>
       </c>
       <c r="AD3" t="n">
-        <v>233112.2334360372</v>
+        <v>287948.985180011</v>
       </c>
       <c r="AE3" t="n">
-        <v>318954.4419729551</v>
+        <v>393984.5049359563</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.562288112653499e-06</v>
+        <v>3.9299010624806e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.47222222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>288513.8776865217</v>
+        <v>356383.1767455934</v>
       </c>
     </row>
     <row r="4">
@@ -9916,28 +9916,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>234.0019433533409</v>
+        <v>288.8386950973147</v>
       </c>
       <c r="AB4" t="n">
-        <v>320.1717823330408</v>
+        <v>395.2018452960426</v>
       </c>
       <c r="AC4" t="n">
-        <v>289.6150367911892</v>
+        <v>357.4843358502611</v>
       </c>
       <c r="AD4" t="n">
-        <v>234001.943353341</v>
+        <v>288838.6950973147</v>
       </c>
       <c r="AE4" t="n">
-        <v>320171.7823330408</v>
+        <v>395201.8452960426</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.562526742512652e-06</v>
+        <v>3.930267060251262e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.47222222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>289615.0367911892</v>
+        <v>357484.3358502611</v>
       </c>
     </row>
   </sheetData>
@@ -17546,28 +17546,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>235.9061241370197</v>
+        <v>289.4986934216418</v>
       </c>
       <c r="AB2" t="n">
-        <v>322.777166487796</v>
+        <v>396.1048841204582</v>
       </c>
       <c r="AC2" t="n">
-        <v>291.971766738895</v>
+        <v>358.3011899166974</v>
       </c>
       <c r="AD2" t="n">
-        <v>235906.1241370197</v>
+        <v>289498.6934216418</v>
       </c>
       <c r="AE2" t="n">
-        <v>322777.166487796</v>
+        <v>396104.8841204582</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.524119348994404e-06</v>
+        <v>3.943886693626905e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.14930555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>291971.766738895</v>
+        <v>358301.1899166973</v>
       </c>
     </row>
     <row r="3">
@@ -17652,28 +17652,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>222.3644604063748</v>
+        <v>276.0422810370174</v>
       </c>
       <c r="AB3" t="n">
-        <v>304.2488647554968</v>
+        <v>377.6932270407987</v>
       </c>
       <c r="AC3" t="n">
-        <v>275.2117801192857</v>
+        <v>341.6467155477975</v>
       </c>
       <c r="AD3" t="n">
-        <v>222364.4604063748</v>
+        <v>276042.2810370174</v>
       </c>
       <c r="AE3" t="n">
-        <v>304248.8647554968</v>
+        <v>377693.2270407986</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.580092949873061e-06</v>
+        <v>4.031344340900067e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.84259259259259</v>
       </c>
       <c r="AH3" t="n">
-        <v>275211.7801192857</v>
+        <v>341646.7155477975</v>
       </c>
     </row>
   </sheetData>
@@ -17949,28 +17949,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>217.562926532141</v>
+        <v>275.7263836048691</v>
       </c>
       <c r="AB2" t="n">
-        <v>297.6791942800489</v>
+        <v>377.2610022377222</v>
       </c>
       <c r="AC2" t="n">
-        <v>269.2691097734221</v>
+        <v>341.2557416732954</v>
       </c>
       <c r="AD2" t="n">
-        <v>217562.926532141</v>
+        <v>275726.3836048691</v>
       </c>
       <c r="AE2" t="n">
-        <v>297679.1942800489</v>
+        <v>377261.0022377222</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.482819012085948e-06</v>
+        <v>4.046190886792527e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.43981481481481</v>
       </c>
       <c r="AH2" t="n">
-        <v>269269.1097734221</v>
+        <v>341255.7416732954</v>
       </c>
     </row>
   </sheetData>
@@ -18246,28 +18246,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>455.9324672074799</v>
+        <v>538.648490544528</v>
       </c>
       <c r="AB2" t="n">
-        <v>623.8269159541304</v>
+        <v>737.0026282572836</v>
       </c>
       <c r="AC2" t="n">
-        <v>564.289750642043</v>
+        <v>666.664131806093</v>
       </c>
       <c r="AD2" t="n">
-        <v>455932.4672074799</v>
+        <v>538648.490544528</v>
       </c>
       <c r="AE2" t="n">
-        <v>623826.9159541305</v>
+        <v>737002.6282572836</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.733914958839803e-06</v>
+        <v>2.561652677290884e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.48958333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>564289.7506420431</v>
+        <v>666664.131806093</v>
       </c>
     </row>
     <row r="3">
@@ -18352,28 +18352,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>316.5860419278875</v>
+        <v>382.8782661870854</v>
       </c>
       <c r="AB3" t="n">
-        <v>433.1669893561801</v>
+        <v>523.8709351941405</v>
       </c>
       <c r="AC3" t="n">
-        <v>391.8261398457133</v>
+        <v>473.8734283966863</v>
       </c>
       <c r="AD3" t="n">
-        <v>316586.0419278875</v>
+        <v>382878.2661870854</v>
       </c>
       <c r="AE3" t="n">
-        <v>433166.9893561801</v>
+        <v>523870.9351941405</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.205753423455402e-06</v>
+        <v>3.258737767865409e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.53125</v>
       </c>
       <c r="AH3" t="n">
-        <v>391826.1398457133</v>
+        <v>473873.4283966863</v>
       </c>
     </row>
     <row r="4">
@@ -18458,28 +18458,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>276.8248742002788</v>
+        <v>334.734651474235</v>
       </c>
       <c r="AB4" t="n">
-        <v>378.7640055323466</v>
+        <v>457.998717597638</v>
       </c>
       <c r="AC4" t="n">
-        <v>342.6153004429592</v>
+        <v>414.287962795356</v>
       </c>
       <c r="AD4" t="n">
-        <v>276824.8742002788</v>
+        <v>334734.651474235</v>
       </c>
       <c r="AE4" t="n">
-        <v>378764.0055323465</v>
+        <v>457998.717597638</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.381681923528087e-06</v>
+        <v>3.518651156884508e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.46064814814815</v>
       </c>
       <c r="AH4" t="n">
-        <v>342615.3004429592</v>
+        <v>414287.962795356</v>
       </c>
     </row>
     <row r="5">
@@ -18564,28 +18564,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>265.1292245241923</v>
+        <v>314.9124878680706</v>
       </c>
       <c r="AB5" t="n">
-        <v>362.7615016698771</v>
+        <v>430.8771588595441</v>
       </c>
       <c r="AC5" t="n">
-        <v>328.1400530894685</v>
+        <v>389.7548475578789</v>
       </c>
       <c r="AD5" t="n">
-        <v>265129.2245241923</v>
+        <v>314912.4878680705</v>
       </c>
       <c r="AE5" t="n">
-        <v>362761.5016698771</v>
+        <v>430877.1588595441</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.437628959130547e-06</v>
+        <v>3.601306233367282e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.14814814814815</v>
       </c>
       <c r="AH5" t="n">
-        <v>328140.0530894685</v>
+        <v>389754.8475578789</v>
       </c>
     </row>
     <row r="6">
@@ -18670,28 +18670,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>264.7234020051455</v>
+        <v>314.5066653490238</v>
       </c>
       <c r="AB6" t="n">
-        <v>362.2062373956913</v>
+        <v>430.3218945853583</v>
       </c>
       <c r="AC6" t="n">
-        <v>327.6377824582927</v>
+        <v>389.2525769267032</v>
       </c>
       <c r="AD6" t="n">
-        <v>264723.4020051456</v>
+        <v>314506.6653490238</v>
       </c>
       <c r="AE6" t="n">
-        <v>362206.2373956913</v>
+        <v>430321.8945853583</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.445439386873069e-06</v>
+        <v>3.612845209391114e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.10763888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>327637.7824582927</v>
+        <v>389252.5769267032</v>
       </c>
     </row>
   </sheetData>
@@ -18967,28 +18967,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>601.4106221770355</v>
+        <v>686.700540092653</v>
       </c>
       <c r="AB2" t="n">
-        <v>822.8765456267109</v>
+        <v>939.5739740444774</v>
       </c>
       <c r="AC2" t="n">
-        <v>744.3423630265823</v>
+        <v>849.9023526620265</v>
       </c>
       <c r="AD2" t="n">
-        <v>601410.6221770355</v>
+        <v>686700.540092653</v>
       </c>
       <c r="AE2" t="n">
-        <v>822876.545626711</v>
+        <v>939573.9740444773</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.462946146031794e-06</v>
+        <v>2.124445064800958e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.11689814814815</v>
       </c>
       <c r="AH2" t="n">
-        <v>744342.3630265824</v>
+        <v>849902.3526620265</v>
       </c>
     </row>
     <row r="3">
@@ -19073,28 +19073,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>383.761054075943</v>
+        <v>451.9929168015961</v>
       </c>
       <c r="AB3" t="n">
-        <v>525.0788045295285</v>
+        <v>618.4366492881029</v>
       </c>
       <c r="AC3" t="n">
-        <v>474.96602037796</v>
+        <v>559.4139234613342</v>
       </c>
       <c r="AD3" t="n">
-        <v>383761.054075943</v>
+        <v>451992.9168015961</v>
       </c>
       <c r="AE3" t="n">
-        <v>525078.8045295285</v>
+        <v>618436.6492881029</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.9767681477723e-06</v>
+        <v>2.870601455276896e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.625</v>
       </c>
       <c r="AH3" t="n">
-        <v>474966.0203779601</v>
+        <v>559413.9234613342</v>
       </c>
     </row>
     <row r="4">
@@ -19179,28 +19179,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>334.1978978103293</v>
+        <v>393.8155263492552</v>
       </c>
       <c r="AB4" t="n">
-        <v>457.2643075547819</v>
+        <v>538.8357770658851</v>
       </c>
       <c r="AC4" t="n">
-        <v>413.6236438162391</v>
+        <v>487.4100467634791</v>
       </c>
       <c r="AD4" t="n">
-        <v>334197.8978103293</v>
+        <v>393815.5263492552</v>
       </c>
       <c r="AE4" t="n">
-        <v>457264.3075547818</v>
+        <v>538835.777065885</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.174855977448075e-06</v>
+        <v>3.158258463905215e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.20138888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>413623.6438162391</v>
+        <v>487410.0467634791</v>
       </c>
     </row>
     <row r="5">
@@ -19285,28 +19285,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>302.6715546798</v>
+        <v>362.3744345647464</v>
       </c>
       <c r="AB5" t="n">
-        <v>414.1285740394936</v>
+        <v>495.8166882032462</v>
       </c>
       <c r="AC5" t="n">
-        <v>374.6047241662677</v>
+        <v>448.49663936422</v>
       </c>
       <c r="AD5" t="n">
-        <v>302671.5546797999</v>
+        <v>362374.4345647465</v>
       </c>
       <c r="AE5" t="n">
-        <v>414128.5740394936</v>
+        <v>495816.6882032462</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.284762428890389e-06</v>
+        <v>3.317861207307455e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.51851851851852</v>
       </c>
       <c r="AH5" t="n">
-        <v>374604.7241662677</v>
+        <v>448496.63936422</v>
       </c>
     </row>
     <row r="6">
@@ -19391,28 +19391,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>287.4968509212154</v>
+        <v>338.6708374740064</v>
       </c>
       <c r="AB6" t="n">
-        <v>393.3658748963165</v>
+        <v>463.3843809347957</v>
       </c>
       <c r="AC6" t="n">
-        <v>355.8235878886842</v>
+        <v>419.1596259824414</v>
       </c>
       <c r="AD6" t="n">
-        <v>287496.8509212154</v>
+        <v>338670.8374740063</v>
       </c>
       <c r="AE6" t="n">
-        <v>393365.8748963166</v>
+        <v>463384.3809347957</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.348763320235378e-06</v>
+        <v>3.410801318691274e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.15393518518519</v>
       </c>
       <c r="AH6" t="n">
-        <v>355823.5878886842</v>
+        <v>419159.6259824414</v>
       </c>
     </row>
     <row r="7">
@@ -19497,28 +19497,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>284.7547729123851</v>
+        <v>335.928759465176</v>
       </c>
       <c r="AB7" t="n">
-        <v>389.6140427926909</v>
+        <v>459.6325488311701</v>
       </c>
       <c r="AC7" t="n">
-        <v>352.4298253752992</v>
+        <v>415.7658634690563</v>
       </c>
       <c r="AD7" t="n">
-        <v>284754.7729123851</v>
+        <v>335928.759465176</v>
       </c>
       <c r="AE7" t="n">
-        <v>389614.0427926909</v>
+        <v>459632.5488311701</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.357677539463579e-06</v>
+        <v>3.423746271652991e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.10185185185185</v>
       </c>
       <c r="AH7" t="n">
-        <v>352429.8253752992</v>
+        <v>415765.8634690563</v>
       </c>
     </row>
     <row r="8">
@@ -19603,28 +19603,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>285.5850006097942</v>
+        <v>336.7589871625851</v>
       </c>
       <c r="AB8" t="n">
-        <v>390.749996955347</v>
+        <v>460.7685029938262</v>
       </c>
       <c r="AC8" t="n">
-        <v>353.4573656669931</v>
+        <v>416.7934037607502</v>
       </c>
       <c r="AD8" t="n">
-        <v>285585.0006097942</v>
+        <v>336758.9871625851</v>
       </c>
       <c r="AE8" t="n">
-        <v>390749.996955347</v>
+        <v>460768.5029938262</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.357570782347073e-06</v>
+        <v>3.423591242276203e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.10185185185185</v>
       </c>
       <c r="AH8" t="n">
-        <v>353457.3656669931</v>
+        <v>416793.4037607502</v>
       </c>
     </row>
   </sheetData>
@@ -19900,28 +19900,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>225.263955836105</v>
+        <v>289.1343393678655</v>
       </c>
       <c r="AB2" t="n">
-        <v>308.216082319162</v>
+        <v>395.6063588299149</v>
       </c>
       <c r="AC2" t="n">
-        <v>278.8003720067007</v>
+        <v>357.850243180199</v>
       </c>
       <c r="AD2" t="n">
-        <v>225263.955836105</v>
+        <v>289134.3393678655</v>
       </c>
       <c r="AE2" t="n">
-        <v>308216.082319162</v>
+        <v>395606.3588299149</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.294622257224747e-06</v>
+        <v>3.824998591398279e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.29745370370371</v>
       </c>
       <c r="AH2" t="n">
-        <v>278800.3720067007</v>
+        <v>357850.2431801989</v>
       </c>
     </row>
   </sheetData>
@@ -20197,28 +20197,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>309.7531932487913</v>
+        <v>373.2935210553183</v>
       </c>
       <c r="AB2" t="n">
-        <v>423.8179843494317</v>
+        <v>510.7566640557447</v>
       </c>
       <c r="AC2" t="n">
-        <v>383.3693907553982</v>
+        <v>462.0107648897439</v>
       </c>
       <c r="AD2" t="n">
-        <v>309753.1932487913</v>
+        <v>373293.5210553183</v>
       </c>
       <c r="AE2" t="n">
-        <v>423817.9843494317</v>
+        <v>510756.6640557447</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.171096233223864e-06</v>
+        <v>3.304205733738748e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.6712962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>383369.3907553982</v>
+        <v>462010.7648897439</v>
       </c>
     </row>
     <row r="3">
@@ -20303,28 +20303,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>238.8521999291563</v>
+        <v>294.2793945592782</v>
       </c>
       <c r="AB3" t="n">
-        <v>326.8081173582863</v>
+        <v>402.646050326621</v>
       </c>
       <c r="AC3" t="n">
-        <v>295.6180093157821</v>
+        <v>364.2180764007285</v>
       </c>
       <c r="AD3" t="n">
-        <v>238852.1999291563</v>
+        <v>294279.3945592782</v>
       </c>
       <c r="AE3" t="n">
-        <v>326808.1173582863</v>
+        <v>402646.050326621</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.54263581227601e-06</v>
+        <v>3.869654279329955e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.37962962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>295618.0093157821</v>
+        <v>364218.0764007285</v>
       </c>
     </row>
     <row r="4">
@@ -20409,28 +20409,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>239.0878829815961</v>
+        <v>294.515077611718</v>
       </c>
       <c r="AB4" t="n">
-        <v>327.1305893082368</v>
+        <v>402.9685222765717</v>
       </c>
       <c r="AC4" t="n">
-        <v>295.9097049954216</v>
+        <v>364.509772080368</v>
       </c>
       <c r="AD4" t="n">
-        <v>239087.8829815961</v>
+        <v>294515.077611718</v>
       </c>
       <c r="AE4" t="n">
-        <v>327130.5893082368</v>
+        <v>402968.5222765717</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.545457631863748e-06</v>
+        <v>3.873948825245838e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.36805555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>295909.7049954216</v>
+        <v>364509.772080368</v>
       </c>
     </row>
   </sheetData>
@@ -20706,28 +20706,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>396.3520697927794</v>
+        <v>469.6774679694678</v>
       </c>
       <c r="AB2" t="n">
-        <v>542.3063877097138</v>
+        <v>642.6334323833196</v>
       </c>
       <c r="AC2" t="n">
-        <v>490.5494271984935</v>
+        <v>581.3013995383419</v>
       </c>
       <c r="AD2" t="n">
-        <v>396352.0697927794</v>
+        <v>469677.4679694679</v>
       </c>
       <c r="AE2" t="n">
-        <v>542306.3877097138</v>
+        <v>642633.4323833196</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.891463967146809e-06</v>
+        <v>2.823786783909523e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.31481481481482</v>
       </c>
       <c r="AH2" t="n">
-        <v>490549.4271984935</v>
+        <v>581301.3995383419</v>
       </c>
     </row>
     <row r="3">
@@ -20812,28 +20812,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>289.0116299186501</v>
+        <v>346.0899266438478</v>
       </c>
       <c r="AB3" t="n">
-        <v>395.4384623479395</v>
+        <v>473.5355060440868</v>
       </c>
       <c r="AC3" t="n">
-        <v>357.6983705028191</v>
+        <v>428.3419419584953</v>
       </c>
       <c r="AD3" t="n">
-        <v>289011.6299186501</v>
+        <v>346089.9266438478</v>
       </c>
       <c r="AE3" t="n">
-        <v>395438.4623479395</v>
+        <v>473535.5060440868</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.330058565310093e-06</v>
+        <v>3.478569349847488e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.05671296296296</v>
       </c>
       <c r="AH3" t="n">
-        <v>357698.3705028191</v>
+        <v>428341.9419584953</v>
       </c>
     </row>
     <row r="4">
@@ -20918,28 +20918,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>255.3852908745208</v>
+        <v>312.3782467451501</v>
       </c>
       <c r="AB4" t="n">
-        <v>349.4294217782177</v>
+        <v>427.4096983523366</v>
       </c>
       <c r="AC4" t="n">
-        <v>316.0803681910825</v>
+        <v>386.6183166148681</v>
       </c>
       <c r="AD4" t="n">
-        <v>255385.2908745208</v>
+        <v>312378.2467451501</v>
       </c>
       <c r="AE4" t="n">
-        <v>349429.4217782177</v>
+        <v>427409.6983523367</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.480048975057506e-06</v>
+        <v>3.702491636560045e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.20601851851852</v>
       </c>
       <c r="AH4" t="n">
-        <v>316080.3681910825</v>
+        <v>386618.3166148681</v>
       </c>
     </row>
     <row r="5">
@@ -21024,28 +21024,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>254.9773893393116</v>
+        <v>303.974805766053</v>
       </c>
       <c r="AB5" t="n">
-        <v>348.871312902399</v>
+        <v>415.911739671085</v>
       </c>
       <c r="AC5" t="n">
-        <v>315.5755244430611</v>
+        <v>376.2177069726687</v>
       </c>
       <c r="AD5" t="n">
-        <v>254977.3893393116</v>
+        <v>303974.805766053</v>
       </c>
       <c r="AE5" t="n">
-        <v>348871.312902399</v>
+        <v>415911.739671085</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.485256189282699e-06</v>
+        <v>3.710265542362896e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.17708333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>315575.5244430611</v>
+        <v>376217.7069726688</v>
       </c>
     </row>
   </sheetData>
